--- a/Utilities/getter setter.xlsx
+++ b/Utilities/getter setter.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darta\Desktop\Bens\Work\Python\JUNC\git\JUNC\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A0A69BA-82F2-4621-A724-30A96169244A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADB3FC5-5EA7-4AE0-8968-C7AF76EF5829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4280AF85-59D4-431E-BB8C-8973E263042C}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>@property</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t xml:space="preserve">    self.__phaser_info_list = value</t>
-  </si>
-  <si>
-    <t>HELLmynameis</t>
   </si>
 </sst>
 </file>
@@ -516,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56404D1F-4F27-45B7-9FC6-02E711FF7D57}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="K1" sqref="K1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -527,10 +524,11 @@
     <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
+    <col min="13" max="13" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,23 +546,8 @@
         <f t="array" aca="1" ref="E1" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C1),LEN(INDIRECT("A"&amp;C1))-11),"")</f>
         <v>self.__Morning</v>
       </c>
-      <c r="K1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L1" t="str">
-        <f>RIGHT(K1,LEN(K1)-2)</f>
-        <v>LLmynameis</v>
-      </c>
-      <c r="M1" t="str" cm="1">
-        <f t="array" aca="1" ref="M1" ca="1">LEFT(RIGHT(INDIRECT("A"&amp;B1),LEN(INDIRECT("A"&amp;B1))-4),LEN(RIGHT(INDIRECT("A"&amp;B1),LEN(INDIRECT("A"&amp;B1))-4))-7)</f>
-        <v>MOR</v>
-      </c>
-      <c r="N1" t="str" cm="1">
-        <f t="array" aca="1" ref="N1" ca="1">RIGHT(INDIRECT("A"&amp;C1),LEN(INDIRECT("A"&amp;C1))-11)</f>
-        <v>self.__Morning</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -585,7 +568,7 @@
         <v>self.__Evening</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -606,7 +589,7 @@
         <v>self.__LRT_status</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -627,7 +610,7 @@
         <v>self.__num_of_images</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -645,7 +628,7 @@
         <v>self.__phaser_info_list</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -666,7 +649,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -687,7 +670,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -708,7 +691,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -729,7 +712,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>92</v>
@@ -747,7 +730,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -768,7 +751,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -789,7 +772,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -810,7 +793,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -831,7 +814,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>142</v>
@@ -849,7 +832,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>2</v>
       </c>

--- a/Utilities/getter setter.xlsx
+++ b/Utilities/getter setter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darta\Desktop\Bens\Work\Python\JUNC\git\JUNC\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADB3FC5-5EA7-4AE0-8968-C7AF76EF5829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF7BE0F-D471-4B0D-823B-E745596476DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{4280AF85-59D4-431E-BB8C-8973E263042C}"/>
+    <workbookView xWindow="30600" yWindow="1920" windowWidth="27000" windowHeight="14175" xr2:uid="{4280AF85-59D4-431E-BB8C-8973E263042C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,111 +56,240 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
   <si>
     <t>@property</t>
   </si>
   <si>
-    <t>@MOR.setter</t>
-  </si>
-  <si>
-    <t>@EVE.setter</t>
-  </si>
-  <si>
-    <t>@IS_LRT.setter</t>
-  </si>
-  <si>
-    <t>@IMG.setter</t>
-  </si>
-  <si>
-    <t>@phsrlst.setter</t>
-  </si>
-  <si>
-    <t>def MOR(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the info for the morning section"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__Morning</t>
-  </si>
-  <si>
-    <t>def MOR(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the info for the morning section"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__Morning = value</t>
-  </si>
-  <si>
-    <t>def EVE(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__Evening</t>
-  </si>
-  <si>
-    <t>def EVE(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set info for the morning section"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__Evening = value</t>
-  </si>
-  <si>
-    <t>def IS_LRT(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the info about the LRT status"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__LRT_status</t>
-  </si>
-  <si>
-    <t>def IS_LRT(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the info about the LRT status"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__LRT_status = value</t>
-  </si>
-  <si>
-    <t>def IMG(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the number of the images in the table"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__num_of_images</t>
-  </si>
-  <si>
-    <t>def IMG(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the number of the images in the table"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__num_of_images = value</t>
-  </si>
-  <si>
-    <t>def phsrlst(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the phaser list info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__phaser_info_list</t>
-  </si>
-  <si>
-    <t>def phsrlst(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the phaser list info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__phaser_info_list = value</t>
+    <t>def A(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the A image info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Image_A</t>
+  </si>
+  <si>
+    <t>@A.setter</t>
+  </si>
+  <si>
+    <t>def A(self, value):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the A image info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Image_A = value</t>
+  </si>
+  <si>
+    <t>def B(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the B image info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Image_B</t>
+  </si>
+  <si>
+    <t>@B.setter</t>
+  </si>
+  <si>
+    <t>def B(self, value):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the B image info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Image_B = value</t>
+  </si>
+  <si>
+    <t>def C(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the C image info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Image_C</t>
+  </si>
+  <si>
+    <t>@C.setter</t>
+  </si>
+  <si>
+    <t>def C(self, value):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the C image info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Image_C = value</t>
+  </si>
+  <si>
+    <t>def D(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the D image info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Image_D</t>
+  </si>
+  <si>
+    <t>@D.setter</t>
+  </si>
+  <si>
+    <t>def D(self, value):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the D image info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Image_D = value</t>
+  </si>
+  <si>
+    <t>def E(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the E image info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Image_E</t>
+  </si>
+  <si>
+    <t>@E.setter</t>
+  </si>
+  <si>
+    <t>def E(self, value):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the E image info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Image_E = value</t>
+  </si>
+  <si>
+    <t>def F(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the F image info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Image_F</t>
+  </si>
+  <si>
+    <t>@F.setter</t>
+  </si>
+  <si>
+    <t>def F(self, value):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the F image info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Image_F = value</t>
+  </si>
+  <si>
+    <t>def LRT(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the LRT table info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__LRT_volume</t>
+  </si>
+  <si>
+    <t>@LRT.setter</t>
+  </si>
+  <si>
+    <t>def LRT(self, value):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the LRT table info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__LRT_volume = value</t>
+  </si>
+  <si>
+    <t>def TOT(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the total count of all volumes in the section of the table"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Total_count</t>
+  </si>
+  <si>
+    <t>@TOT.setter</t>
+  </si>
+  <si>
+    <t>def TOT(self, value):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the total count of all volumes"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Total_count = value</t>
+  </si>
+  <si>
+    <t>def VOC(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the volume to capacity in the section of the table"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Volume_To_Capacity</t>
+  </si>
+  <si>
+    <t>@VOC.setter</t>
+  </si>
+  <si>
+    <t>def VOC(self, value):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the volume to capacity"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Volume_To_Capacity = round(value, 2)</t>
+  </si>
+  <si>
+    <t>def LOS(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the level of service in the section of the table"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Level_Of_Service</t>
+  </si>
+  <si>
+    <t>@LOS.setter</t>
+  </si>
+  <si>
+    <t>def LOS(self, value):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the level of service"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Level_Of_Service = value</t>
+  </si>
+  <si>
+    <t>original_directions_list</t>
+  </si>
+  <si>
+    <t>directions_from_phases</t>
+  </si>
+  <si>
+    <t>i_to_direction</t>
+  </si>
+  <si>
+    <t>match_arrow_type</t>
+  </si>
+  <si>
+    <t>complex_arrows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complex_arrows_full </t>
+  </si>
+  <si>
+    <t>match_arrows_for_string</t>
   </si>
 </sst>
 </file>
@@ -513,22 +642,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56404D1F-4F27-45B7-9FC6-02E711FF7D57}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:N1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -540,16 +669,19 @@
       </c>
       <c r="D1" t="str" cm="1">
         <f t="array" aca="1" ref="D1" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B1),LEN(INDIRECT("A"&amp;B1))-4),LEN(RIGHT(INDIRECT("A"&amp;B1),LEN(INDIRECT("A"&amp;B1))-4))-7),"")</f>
-        <v>MOR</v>
+        <v>A</v>
       </c>
       <c r="E1" t="str" cm="1">
         <f t="array" aca="1" ref="E1" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C1),LEN(INDIRECT("A"&amp;C1))-11),"")</f>
-        <v>self.__Morning</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>self.__Image_A</v>
+      </c>
+      <c r="L1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <f>B1+10</f>
@@ -561,16 +693,19 @@
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B2),LEN(INDIRECT("A"&amp;B2))-4),LEN(RIGHT(INDIRECT("A"&amp;B2),LEN(INDIRECT("A"&amp;B2))-4))-7),"")</f>
-        <v>EVE</v>
+        <v>B</v>
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C2),LEN(INDIRECT("A"&amp;C2))-11),"")</f>
-        <v>self.__Evening</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>self.__Image_B</v>
+      </c>
+      <c r="L2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B49" si="0">B2+10</f>
@@ -582,16 +717,19 @@
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B3),LEN(INDIRECT("A"&amp;B3))-4),LEN(RIGHT(INDIRECT("A"&amp;B3),LEN(INDIRECT("A"&amp;B3))-4))-7),"")</f>
-        <v>IS_LRT</v>
+        <v>C</v>
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C3),LEN(INDIRECT("A"&amp;C3))-11),"")</f>
-        <v>self.__LRT_status</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>self.__Image_C</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -603,14 +741,17 @@
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B4),LEN(INDIRECT("A"&amp;B4))-4),LEN(RIGHT(INDIRECT("A"&amp;B4),LEN(INDIRECT("A"&amp;B4))-4))-7),"")</f>
-        <v>IMG</v>
+        <v>D</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C4),LEN(INDIRECT("A"&amp;C4))-11),"")</f>
-        <v>self.__num_of_images</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>self.__Image_D</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -621,16 +762,19 @@
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B5),LEN(INDIRECT("A"&amp;B5))-4),LEN(RIGHT(INDIRECT("A"&amp;B5),LEN(INDIRECT("A"&amp;B5))-4))-7),"")</f>
-        <v>phsrlst</v>
+        <v>E</v>
       </c>
       <c r="E5" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C5),LEN(INDIRECT("A"&amp;C5))-11),"")</f>
-        <v>self.__phaser_info_list</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>self.__Image_E</v>
+      </c>
+      <c r="L5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -642,16 +786,19 @@
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B6),LEN(INDIRECT("A"&amp;B6))-4),LEN(RIGHT(INDIRECT("A"&amp;B6),LEN(INDIRECT("A"&amp;B6))-4))-7),"")</f>
-        <v/>
+        <v>F</v>
       </c>
       <c r="E6" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C6),LEN(INDIRECT("A"&amp;C6))-11),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>self.__Image_F</v>
+      </c>
+      <c r="L6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -663,16 +810,19 @@
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B7),LEN(INDIRECT("A"&amp;B7))-4),LEN(RIGHT(INDIRECT("A"&amp;B7),LEN(INDIRECT("A"&amp;B7))-4))-7),"")</f>
-        <v/>
+        <v>LRT</v>
       </c>
       <c r="E7" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C7),LEN(INDIRECT("A"&amp;C7))-11),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>self.__LRT_volume</v>
+      </c>
+      <c r="L7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -684,16 +834,16 @@
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B8),LEN(INDIRECT("A"&amp;B8))-4),LEN(RIGHT(INDIRECT("A"&amp;B8),LEN(INDIRECT("A"&amp;B8))-4))-7),"")</f>
-        <v/>
+        <v>TOT</v>
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C8),LEN(INDIRECT("A"&amp;C8))-11),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>self.__Total_count</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -705,14 +855,14 @@
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B9),LEN(INDIRECT("A"&amp;B9))-4),LEN(RIGHT(INDIRECT("A"&amp;B9),LEN(INDIRECT("A"&amp;B9))-4))-7),"")</f>
-        <v/>
+        <v>VOC</v>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C9),LEN(INDIRECT("A"&amp;C9))-11),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>self.__Volume_To_Capacity</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10">
         <f t="shared" si="0"/>
         <v>92</v>
@@ -723,14 +873,14 @@
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B10),LEN(INDIRECT("A"&amp;B10))-4),LEN(RIGHT(INDIRECT("A"&amp;B10),LEN(INDIRECT("A"&amp;B10))-4))-7),"")</f>
-        <v/>
+        <v>LOS</v>
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C10),LEN(INDIRECT("A"&amp;C10))-11),"")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>self.__Level_Of_Service</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -751,9 +901,9 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -772,9 +922,9 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -793,9 +943,9 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -814,7 +964,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B15">
         <f t="shared" si="0"/>
         <v>142</v>
@@ -832,9 +982,9 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -855,7 +1005,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -876,7 +1026,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -897,7 +1047,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -957,7 +1107,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -978,7 +1128,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -999,7 +1149,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -1038,7 +1188,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -1059,7 +1209,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -1080,7 +1230,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -1101,7 +1251,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -1161,7 +1311,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -1182,7 +1332,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -1203,7 +1353,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -1242,7 +1392,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -1446,7 +1596,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -1467,7 +1617,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
@@ -1488,7 +1638,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
@@ -1509,7 +1659,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
@@ -1526,6 +1676,206 @@
       <c r="E49" t="str" cm="1">
         <f t="array" aca="1" ref="E49" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C49),LEN(INDIRECT("A"&amp;C49))-11),"")</f>
         <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Utilities/getter setter.xlsx
+++ b/Utilities/getter setter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\darta\Desktop\Bens\Work\Python\JUNC\git\JUNC\Utilities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF7BE0F-D471-4B0D-823B-E745596476DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA31D684-28FC-4DA5-A2FF-59B7526860DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="1920" windowWidth="27000" windowHeight="14175" xr2:uid="{4280AF85-59D4-431E-BB8C-8973E263042C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{4280AF85-59D4-431E-BB8C-8973E263042C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -56,221 +56,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="64">
   <si>
     <t>@property</t>
   </si>
   <si>
-    <t>def A(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the A image info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__Image_A</t>
-  </si>
-  <si>
-    <t>@A.setter</t>
-  </si>
-  <si>
-    <t>def A(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the A image info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__Image_A = value</t>
-  </si>
-  <si>
-    <t>def B(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the B image info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__Image_B</t>
-  </si>
-  <si>
-    <t>@B.setter</t>
-  </si>
-  <si>
-    <t>def B(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the B image info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__Image_B = value</t>
-  </si>
-  <si>
-    <t>def C(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the C image info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__Image_C</t>
-  </si>
-  <si>
-    <t>@C.setter</t>
-  </si>
-  <si>
-    <t>def C(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the C image info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__Image_C = value</t>
-  </si>
-  <si>
-    <t>def D(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the D image info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__Image_D</t>
-  </si>
-  <si>
-    <t>@D.setter</t>
-  </si>
-  <si>
-    <t>def D(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the D image info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__Image_D = value</t>
-  </si>
-  <si>
-    <t>def E(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the E image info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__Image_E</t>
-  </si>
-  <si>
-    <t>@E.setter</t>
-  </si>
-  <si>
-    <t>def E(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the E image info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__Image_E = value</t>
-  </si>
-  <si>
-    <t>def F(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the F image info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__Image_F</t>
-  </si>
-  <si>
-    <t>@F.setter</t>
-  </si>
-  <si>
-    <t>def F(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the F image info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__Image_F = value</t>
-  </si>
-  <si>
-    <t>def LRT(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the LRT table info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__LRT_volume</t>
-  </si>
-  <si>
-    <t>@LRT.setter</t>
-  </si>
-  <si>
-    <t>def LRT(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the LRT table info"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__LRT_volume = value</t>
-  </si>
-  <si>
-    <t>def TOT(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the total count of all volumes in the section of the table"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__Total_count</t>
-  </si>
-  <si>
-    <t>@TOT.setter</t>
-  </si>
-  <si>
-    <t>def TOT(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the total count of all volumes"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__Total_count = value</t>
-  </si>
-  <si>
-    <t>def VOC(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the volume to capacity in the section of the table"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__Volume_To_Capacity</t>
-  </si>
-  <si>
-    <t>@VOC.setter</t>
-  </si>
-  <si>
-    <t>def VOC(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the volume to capacity"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__Volume_To_Capacity = round(value, 2)</t>
-  </si>
-  <si>
-    <t>def LOS(self):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Get the level of service in the section of the table"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    return self.__Level_Of_Service</t>
-  </si>
-  <si>
-    <t>@LOS.setter</t>
-  </si>
-  <si>
-    <t>def LOS(self, value):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    """Set the level of service"""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    self.__Level_Of_Service = value</t>
-  </si>
-  <si>
     <t>original_directions_list</t>
   </si>
   <si>
@@ -290,6 +80,174 @@
   </si>
   <si>
     <t>match_arrows_for_string</t>
+  </si>
+  <si>
+    <t>@PROJ_NAME.setter</t>
+  </si>
+  <si>
+    <t>@PROJ_NUM.setter</t>
+  </si>
+  <si>
+    <t>@AUTHOR.setter</t>
+  </si>
+  <si>
+    <t>@DATETIME.setter</t>
+  </si>
+  <si>
+    <t>@COUNT.setter</t>
+  </si>
+  <si>
+    <t>@INFO.setter</t>
+  </si>
+  <si>
+    <t>@STREETS.setter</t>
+  </si>
+  <si>
+    <t>@phsrlst.setter</t>
+  </si>
+  <si>
+    <t>def PROJ_NAME(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the name of the project"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Project_name</t>
+  </si>
+  <si>
+    <t>def PROJ_NAME(self, name):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the name of the project"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Project_name = name</t>
+  </si>
+  <si>
+    <t>def PROJ_NUM(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the project number"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Project_number</t>
+  </si>
+  <si>
+    <t>def PROJ_NUM(self, number):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the project number"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Project_number = number</t>
+  </si>
+  <si>
+    <t>def AUTHOR(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the name of the author, based on the info written in office"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Author</t>
+  </si>
+  <si>
+    <t>def AUTHOR(self, author):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the name of the author | DO NOT USE UNLESS NEEDED!"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Author = author</t>
+  </si>
+  <si>
+    <t>def DATETIME(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the time of the created JUNC"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Date_time</t>
+  </si>
+  <si>
+    <t>def DATETIME(self, datetime):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the time of the created JUNC | DO NOT USE UNLESS NEEDED!"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Date_time = datetime</t>
+  </si>
+  <si>
+    <t>def COUNT(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the number of tries or versions for this JUNC"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Counter</t>
+  </si>
+  <si>
+    <t>def COUNT(self, count):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set  the number of tries or versions for this JUNC"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Counter = count</t>
+  </si>
+  <si>
+    <t>def INFO(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the additional info about the JUNC"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__More_info</t>
+  </si>
+  <si>
+    <t>def INFO(self, info):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the additional info about the JUNC"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__More_info = info</t>
+  </si>
+  <si>
+    <t>def STREETS(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the names of the streets for this JUNC"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__Street_names</t>
+  </si>
+  <si>
+    <t>def STREETS(self, streets):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the names of the streets for this JUNC | DO NOT USE UNLESS NEEDED!"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__Street_names = streets</t>
+  </si>
+  <si>
+    <t>def phsrlst(self):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Get the phaser list info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    return self.__phaser_info_list</t>
+  </si>
+  <si>
+    <t>def phsrlst(self, value):</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    """Set the phaser list info"""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    self.__phaser_info_list = value</t>
   </si>
 </sst>
 </file>
@@ -642,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56404D1F-4F27-45B7-9FC6-02E711FF7D57}">
-  <dimension ref="A1:L99"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,19 +627,19 @@
       </c>
       <c r="D1" t="str" cm="1">
         <f t="array" aca="1" ref="D1" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B1),LEN(INDIRECT("A"&amp;B1))-4),LEN(RIGHT(INDIRECT("A"&amp;B1),LEN(INDIRECT("A"&amp;B1))-4))-7),"")</f>
-        <v>A</v>
+        <v>PROJ_NAME</v>
       </c>
       <c r="E1" t="str" cm="1">
         <f t="array" aca="1" ref="E1" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C1),LEN(INDIRECT("A"&amp;C1))-11),"")</f>
-        <v>self.__Image_A</v>
+        <v>self.__Project_name</v>
       </c>
       <c r="L1" t="s">
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <f>B1+10</f>
@@ -693,19 +651,19 @@
       </c>
       <c r="D2" t="str" cm="1">
         <f t="array" aca="1" ref="D2" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B2),LEN(INDIRECT("A"&amp;B2))-4),LEN(RIGHT(INDIRECT("A"&amp;B2),LEN(INDIRECT("A"&amp;B2))-4))-7),"")</f>
-        <v>B</v>
+        <v>PROJ_NUM</v>
       </c>
       <c r="E2" t="str" cm="1">
         <f t="array" aca="1" ref="E2" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C2),LEN(INDIRECT("A"&amp;C2))-11),"")</f>
-        <v>self.__Image_B</v>
+        <v>self.__Project_number</v>
       </c>
       <c r="L2" t="s">
-        <v>72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B49" si="0">B2+10</f>
@@ -717,19 +675,19 @@
       </c>
       <c r="D3" t="str" cm="1">
         <f t="array" aca="1" ref="D3" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B3),LEN(INDIRECT("A"&amp;B3))-4),LEN(RIGHT(INDIRECT("A"&amp;B3),LEN(INDIRECT("A"&amp;B3))-4))-7),"")</f>
-        <v>C</v>
+        <v>AUTHOR</v>
       </c>
       <c r="E3" t="str" cm="1">
         <f t="array" aca="1" ref="E3" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C3),LEN(INDIRECT("A"&amp;C3))-11),"")</f>
-        <v>self.__Image_C</v>
+        <v>self.__Author</v>
       </c>
       <c r="L3" t="s">
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -741,14 +699,14 @@
       </c>
       <c r="D4" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B4),LEN(INDIRECT("A"&amp;B4))-4),LEN(RIGHT(INDIRECT("A"&amp;B4),LEN(INDIRECT("A"&amp;B4))-4))-7),"")</f>
-        <v>D</v>
+        <v>DATETIME</v>
       </c>
       <c r="E4" t="str" cm="1">
         <f t="array" aca="1" ref="E4" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C4),LEN(INDIRECT("A"&amp;C4))-11),"")</f>
-        <v>self.__Image_D</v>
+        <v>self.__Date_time</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -762,19 +720,19 @@
       </c>
       <c r="D5" t="str" cm="1">
         <f t="array" aca="1" ref="D5" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B5),LEN(INDIRECT("A"&amp;B5))-4),LEN(RIGHT(INDIRECT("A"&amp;B5),LEN(INDIRECT("A"&amp;B5))-4))-7),"")</f>
-        <v>E</v>
+        <v>COUNT</v>
       </c>
       <c r="E5" t="str" cm="1">
         <f t="array" aca="1" ref="E5" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C5),LEN(INDIRECT("A"&amp;C5))-11),"")</f>
-        <v>self.__Image_E</v>
+        <v>self.__Counter</v>
       </c>
       <c r="L5" t="s">
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -786,19 +744,19 @@
       </c>
       <c r="D6" t="str" cm="1">
         <f t="array" aca="1" ref="D6" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B6),LEN(INDIRECT("A"&amp;B6))-4),LEN(RIGHT(INDIRECT("A"&amp;B6),LEN(INDIRECT("A"&amp;B6))-4))-7),"")</f>
-        <v>F</v>
+        <v>INFO</v>
       </c>
       <c r="E6" t="str" cm="1">
         <f t="array" aca="1" ref="E6" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C6),LEN(INDIRECT("A"&amp;C6))-11),"")</f>
-        <v>self.__Image_F</v>
+        <v>self.__More_info</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -810,19 +768,19 @@
       </c>
       <c r="D7" t="str" cm="1">
         <f t="array" aca="1" ref="D7" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B7),LEN(INDIRECT("A"&amp;B7))-4),LEN(RIGHT(INDIRECT("A"&amp;B7),LEN(INDIRECT("A"&amp;B7))-4))-7),"")</f>
-        <v>LRT</v>
+        <v>STREETS</v>
       </c>
       <c r="E7" t="str" cm="1">
         <f t="array" aca="1" ref="E7" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C7),LEN(INDIRECT("A"&amp;C7))-11),"")</f>
-        <v>self.__LRT_volume</v>
+        <v>self.__Street_names</v>
       </c>
       <c r="L7" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -834,16 +792,16 @@
       </c>
       <c r="D8" t="str" cm="1">
         <f t="array" aca="1" ref="D8" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B8),LEN(INDIRECT("A"&amp;B8))-4),LEN(RIGHT(INDIRECT("A"&amp;B8),LEN(INDIRECT("A"&amp;B8))-4))-7),"")</f>
-        <v>TOT</v>
+        <v>phsrlst</v>
       </c>
       <c r="E8" t="str" cm="1">
         <f t="array" aca="1" ref="E8" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C8),LEN(INDIRECT("A"&amp;C8))-11),"")</f>
-        <v>self.__Total_count</v>
+        <v>self.__phaser_info_list</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -855,11 +813,11 @@
       </c>
       <c r="D9" t="str" cm="1">
         <f t="array" aca="1" ref="D9" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B9),LEN(INDIRECT("A"&amp;B9))-4),LEN(RIGHT(INDIRECT("A"&amp;B9),LEN(INDIRECT("A"&amp;B9))-4))-7),"")</f>
-        <v>VOC</v>
+        <v/>
       </c>
       <c r="E9" t="str" cm="1">
         <f t="array" aca="1" ref="E9" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C9),LEN(INDIRECT("A"&amp;C9))-11),"")</f>
-        <v>self.__Volume_To_Capacity</v>
+        <v/>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -873,11 +831,11 @@
       </c>
       <c r="D10" t="str" cm="1">
         <f t="array" aca="1" ref="D10" ca="1">IFERROR(LEFT(RIGHT(INDIRECT("A"&amp;B10),LEN(INDIRECT("A"&amp;B10))-4),LEN(RIGHT(INDIRECT("A"&amp;B10),LEN(INDIRECT("A"&amp;B10))-4))-7),"")</f>
-        <v>LOS</v>
+        <v/>
       </c>
       <c r="E10" t="str" cm="1">
         <f t="array" aca="1" ref="E10" ca="1">IFERROR(RIGHT(INDIRECT("A"&amp;C10),LEN(INDIRECT("A"&amp;C10))-11),"")</f>
-        <v>self.__Level_Of_Service</v>
+        <v/>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -903,7 +861,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -924,7 +882,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -945,7 +903,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -984,7 +942,7 @@
     </row>
     <row r="16" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -1005,7 +963,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -1026,7 +984,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -1047,7 +1005,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -1107,7 +1065,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -1128,7 +1086,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -1149,7 +1107,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -1188,7 +1146,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -1209,7 +1167,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -1230,7 +1188,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -1251,7 +1209,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -1311,7 +1269,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -1332,7 +1290,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -1353,7 +1311,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -1392,7 +1350,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -1413,7 +1371,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
@@ -1434,7 +1392,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
@@ -1455,7 +1413,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
@@ -1515,7 +1473,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
@@ -1536,7 +1494,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
@@ -1557,7 +1515,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
@@ -1596,7 +1554,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -1617,7 +1575,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
@@ -1638,7 +1596,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
@@ -1659,7 +1617,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
@@ -1685,37 +1643,37 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -1725,37 +1683,37 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
@@ -1765,117 +1723,37 @@
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
